--- a/Memory/Practica2/tables/global.xlsx
+++ b/Memory/Practica2/tables/global.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>FITNESS</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>SPAMBASE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>DE-CURR-TO-BEST</t>
@@ -568,10 +571,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -906,7 +911,7 @@
   <dimension ref="B1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +932,7 @@
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
@@ -953,57 +958,57 @@
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10">
         <v>43.757300000000001</v>
@@ -1014,11 +1019,11 @@
       <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="27">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G5" s="29">
-        <v>42.667200000000001</v>
+      <c r="G5" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="10">
         <v>47.363</v>
@@ -1029,11 +1034,11 @@
       <c r="J5" s="18">
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="27">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="L5" s="29">
-        <v>47.759099999999997</v>
+      <c r="L5" s="26" t="s">
+        <v>5</v>
       </c>
       <c r="M5" s="32">
         <v>41.847799999999999</v>
@@ -1044,16 +1049,16 @@
       <c r="O5" s="33">
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="27">
         <v>5.3E-3</v>
       </c>
-      <c r="Q5" s="29">
-        <v>42.119599999999998</v>
+      <c r="Q5" s="26" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11">
         <v>49.441899999999997</v>
@@ -1064,7 +1069,7 @@
       <c r="E6" s="19">
         <v>12.333299999999999</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="28">
         <v>1.8E-3</v>
       </c>
       <c r="G6" s="30">
@@ -1079,7 +1084,7 @@
       <c r="J6" s="19">
         <v>2.6667000000000001</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="28">
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="L6" s="30">
@@ -1094,7 +1099,7 @@
       <c r="O6" s="35">
         <v>21.7544</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="28">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q6" s="30">
@@ -1103,7 +1108,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11">
         <v>76.662000000000006</v>
@@ -1114,7 +1119,7 @@
       <c r="E7" s="19">
         <v>65.333299999999994</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="28">
         <v>3.4512</v>
       </c>
       <c r="G7" s="30">
@@ -1129,7 +1134,7 @@
       <c r="J7" s="19">
         <v>82.666700000000006</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="28">
         <v>7.2895000000000003</v>
       </c>
       <c r="L7" s="30">
@@ -1144,7 +1149,7 @@
       <c r="O7" s="35">
         <v>77.8947</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="28">
         <v>23.1831</v>
       </c>
       <c r="Q7" s="30">
@@ -1153,7 +1158,7 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="11">
         <v>73.031400000000005</v>
@@ -1164,7 +1169,7 @@
       <c r="E8" s="19">
         <v>60</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="28">
         <v>14.783899999999999</v>
       </c>
       <c r="G8" s="30">
@@ -1179,7 +1184,7 @@
       <c r="J8" s="19">
         <v>70</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="28">
         <v>55.527200000000001</v>
       </c>
       <c r="L8" s="30">
@@ -1194,7 +1199,7 @@
       <c r="O8" s="35">
         <v>76.1404</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="28">
         <v>67.516400000000004</v>
       </c>
       <c r="Q8" s="30">
@@ -1203,7 +1208,7 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17">
         <v>75.4071</v>
@@ -1214,7 +1219,7 @@
       <c r="E9" s="20">
         <v>71</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="29">
         <v>14.822900000000001</v>
       </c>
       <c r="G9" s="31">
@@ -1229,7 +1234,7 @@
       <c r="J9" s="20">
         <v>92</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="29">
         <v>57.003</v>
       </c>
       <c r="L9" s="31">
@@ -1244,7 +1249,7 @@
       <c r="O9" s="37">
         <v>84.912300000000002</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="29">
         <v>66.961500000000001</v>
       </c>
       <c r="Q9" s="31">
@@ -1253,7 +1258,7 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="40">
         <v>81.817599999999999</v>
@@ -1303,7 +1308,7 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="40">
         <v>80.007599999999996</v>
@@ -1353,7 +1358,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="46">
         <v>83.77</v>
@@ -1403,7 +1408,7 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="51">
         <v>71.829800000000006</v>
